--- a/data/trans_dic/P7B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P7B_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas &lt; 16 años</t>
+          <t>Hogares con personas &lt; 16 años (tasa de respuesta: 99,81%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>16,72%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,79%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>30,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,05%</t>
+          <t>30,18%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>31,14%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>28,08%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>24,31%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>23,78%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>24,57%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>22,33%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,16; 22,5</t>
+          <t>7,46; 33,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,32; 44,35</t>
+          <t>6,38; 31,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,64; 28,8</t>
+          <t>6,69; 33,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,64; 26,7</t>
+          <t>5,72; 31,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,51; 26,9</t>
+          <t>18,48; 44,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,66; 27,39</t>
+          <t>17,93; 45,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,7; 27,23</t>
+          <t>19,71; 47,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,7; 23,31</t>
+          <t>16,58; 44,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,41; 22,34</t>
+          <t>15,22; 34,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,9; 32,16</t>
+          <t>14,69; 34,8</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,04; 24,64</t>
+          <t>15,25; 36,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,13; 22,49</t>
+          <t>12,96; 32,73</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>33,6%</t>
+          <t>31,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>34,17%</t>
+          <t>31,65%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>33,12%</t>
+          <t>30,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>33,83%</t>
+          <t>32,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,34%</t>
+          <t>40,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>41,64%</t>
+          <t>41,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>41,24%</t>
+          <t>40,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>40,43%</t>
+          <t>40,68%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>36,6%</t>
+          <t>36,09%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>38,05%</t>
+          <t>36,67%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>37,16%</t>
+          <t>35,63%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>36,98%</t>
+          <t>36,23%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,85; 41,18</t>
+          <t>23,02; 43,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,13; 42,08</t>
+          <t>23,12; 43,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,47; 40,18</t>
+          <t>21,99; 40,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,44; 41,7</t>
+          <t>23,52; 42,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,31; 45,49</t>
+          <t>32,44; 48,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,39; 47,94</t>
+          <t>33,16; 48,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,07; 47,04</t>
+          <t>33,56; 48,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,24; 46,61</t>
+          <t>32,99; 48,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>32,38; 41,43</t>
+          <t>31,01; 42,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>33,46; 43,25</t>
+          <t>31,77; 43,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>32,96; 41,93</t>
+          <t>30,85; 41,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>32,64; 42,25</t>
+          <t>30,99; 43,04</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>37,56%</t>
+          <t>38,64%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>38,31%</t>
+          <t>38,4%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>36,17%</t>
+          <t>38,26%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>35,31%</t>
+          <t>37,71%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>44,65%</t>
+          <t>48,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>46,33%</t>
+          <t>49,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>45,48%</t>
+          <t>48,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>45,7%</t>
+          <t>47,71%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>41,38%</t>
+          <t>43,86%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>42,64%</t>
+          <t>44,44%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>41,15%</t>
+          <t>43,82%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>40,76%</t>
+          <t>43,13%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,38; 44,73</t>
+          <t>30,23; 47,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,68; 46,1</t>
+          <t>29,88; 47,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,69; 44,17</t>
+          <t>29,69; 46,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>27,83; 42,39</t>
+          <t>29,35; 46,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>38,17; 50,83</t>
+          <t>40,75; 55,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>39,87; 52,76</t>
+          <t>41,99; 56,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>38,89; 52,74</t>
+          <t>40,28; 56,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>38,72; 52,42</t>
+          <t>39,45; 55,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>36,98; 46,59</t>
+          <t>37,86; 50,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>37,86; 47,87</t>
+          <t>38,33; 50,69</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36,37; 46,1</t>
+          <t>38,06; 49,85</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>35,61; 45,36</t>
+          <t>37,1; 49,23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>31,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>37,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>39,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>38,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>37,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>34,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>36,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>35,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>34,36%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1145,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,45; 35,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,01; 38,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,46; 36,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,87; 36,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,75; 41,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,42; 42,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,22; 42,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,53; 41,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,88; 37,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>33,24; 39,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>32,28; 38,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>31,24; 37,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>32,14%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>32,01%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>31,44%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>31,76%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>42,31%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>43,01%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>42,68%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>41,62%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>37,58%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>37,93%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>37,31%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>36,78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>26,8; 39,15</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>25,82; 39,13</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>25,67; 38,12</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>25,22; 38,74</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>36,9; 47,03</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>37,77; 48,0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>37,89; 47,59</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>36,73; 46,69</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>33,76; 41,55</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>33,87; 42,05</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>33,46; 41,19</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>32,78; 40,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
@@ -1216,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas &lt; 16 años (tasa de respuesta: 99,81%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>18252</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>21545</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>18449</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>18549</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>35519</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>42993</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>35363</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>33853</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>53771</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>64538</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>53812</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>52402</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7711; 34117</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8224; 40794</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7059; 35377</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6528; 36281</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>21765; 52441</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>25548; 64122</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>22381; 53638</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>19984; 53670</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>33668; 75779</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>39859; 94439</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>33401; 78852</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>30422; 76810</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>113997</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>135196</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>113358</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>127578</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>159058</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>191808</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>153882</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>150617</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>273055</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>327004</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>267240</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>278194</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>84259; 158783</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>98771; 185773</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>82359; 152044</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>93535; 170253</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>126733; 187708</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>154029; 226561</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>126031; 182375</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>122146; 178738</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>234666; 322395</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>283258; 389933</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>231367; 314306</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>238007; 330511</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>110484</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>127816</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>107231</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>103838</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>172671</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>210483</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>165821</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>155379</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>283155</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>338299</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>273053</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>259216</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>86429; 135148</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>99474; 157101</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>83192; 130864</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>80814; 128855</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>146533; 201176</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>179900; 244062</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>138105; 193643</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>128475; 181374</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>244401; 323683</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>291795; 385938</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>237161; 310616</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>222966; 295886</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>242733</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>284557</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>239038</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>249965</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>367248</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>445284</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>355067</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>339848</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>609981</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>729841</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>594104</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>589813</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>202452; 295680</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>229500; 347840</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>195154; 289818</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>198546; 304973</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>320296; 408264</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>391037; 496985</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>315239; 395921</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>299928; 381222</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>547964; 674509</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>651738; 809093</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>532759; 655838</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>525744; 656738</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>